--- a/document/bing-dictionary.xlsx
+++ b/document/bing-dictionary.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ZZC/go/src/github.com/zzc-tongji/mydictionary/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zzc/go/src/github.com/zzc-tongji/mydictionary-local-cli/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16300" tabRatio="204"/>
+    <workbookView xWindow="700" yWindow="460" windowWidth="28100" windowHeight="16300" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="bing-dictionary" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
     <t>Word</t>
   </si>
   <si>
-    <t>Define</t>
-  </si>
-  <si>
     <t>QC</t>
   </si>
   <si>
@@ -49,13 +46,16 @@
   <si>
     <t>Note</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Definition</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -110,13 +110,16 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -451,7 +454,7 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="5.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
@@ -461,7 +464,7 @@
     <col min="7" max="16384" width="8.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="100" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,16 +472,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
